--- a/proposal/dcache/plots/latency-by-version.xlsx
+++ b/proposal/dcache/plots/latency-by-version.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiache\Documents\Papers\chiache-thesis\proposal\dcache\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15458" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -203,12 +203,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -228,9 +231,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.167335794372337"/>
-          <c:y val="0.0483333333333333"/>
-          <c:w val="0.637436624973"/>
+          <c:x val="0.12308314471935927"/>
+          <c:y val="4.8333333333333298E-2"/>
+          <c:w val="0.71709144359483945"/>
           <c:h val="0.703085535540934"/>
         </c:manualLayout>
       </c:layout>
@@ -283,85 +286,85 @@
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40547.0</c:v>
+                  <c:v>40547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40616.0</c:v>
+                  <c:v>40616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40681.0</c:v>
+                  <c:v>40681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40745.0</c:v>
+                  <c:v>40745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40840.0</c:v>
+                  <c:v>40840</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40912.0</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40986.0</c:v>
+                  <c:v>40986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41049.0</c:v>
+                  <c:v>41049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41111.0</c:v>
+                  <c:v>41111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41182.0</c:v>
+                  <c:v>41182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41253.0</c:v>
+                  <c:v>41253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41323.0</c:v>
+                  <c:v>41323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41392.0</c:v>
+                  <c:v>41392</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41455.0</c:v>
+                  <c:v>41455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41520.0</c:v>
+                  <c:v>41520</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41581.0</c:v>
+                  <c:v>41581</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41668.0</c:v>
+                  <c:v>41668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41728.0</c:v>
+                  <c:v>41728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41798.0</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41854.0</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41917.0</c:v>
+                  <c:v>41917</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42043.0</c:v>
+                  <c:v>42043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42106.0</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42176.0</c:v>
+                  <c:v>42176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42204.0</c:v>
+                  <c:v>42204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,90 +376,95 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.9646</c:v>
+                  <c:v>0.96460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9331</c:v>
+                  <c:v>0.93310000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.905</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6423</c:v>
+                  <c:v>0.64229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5885</c:v>
+                  <c:v>0.58850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6054</c:v>
+                  <c:v>0.60540000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5993</c:v>
+                  <c:v>0.59930000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.645</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5761</c:v>
+                  <c:v>0.57609999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.587</c:v>
+                  <c:v>0.58699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5855</c:v>
+                  <c:v>0.58550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5855</c:v>
+                  <c:v>0.58550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5965</c:v>
+                  <c:v>0.59650000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6001</c:v>
+                  <c:v>0.60009999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6237</c:v>
+                  <c:v>0.62370000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5936</c:v>
+                  <c:v>0.59360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5979</c:v>
+                  <c:v>0.59789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.6109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5891</c:v>
+                  <c:v>0.58909999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5912</c:v>
+                  <c:v>0.59119999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5762</c:v>
+                  <c:v>0.57620000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>0.5882</c:v>
+                  <c:v>0.58819999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>0.5791</c:v>
+                  <c:v>0.57909999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.5718</c:v>
+                  <c:v>0.57179999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.5646</c:v>
+                  <c:v>0.56459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.6106</c:v>
+                  <c:v>0.61060000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B0A-4FC3-9CBB-6FACB36E78C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -499,8 +507,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0257413552732342"/>
-                  <c:y val="0.0665753424657534"/>
+                  <c:x val="-2.57413552732342E-2"/>
+                  <c:y val="6.6575342465753404E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -511,8 +519,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1B0A-4FC3-9CBB-6FACB36E78C7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -550,7 +559,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -576,10 +584,10 @@
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>41728.0</c:v>
+                  <c:v>41728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42278.0</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,15 +599,20 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.6005</c:v>
+                  <c:v>0.60050000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4438</c:v>
+                  <c:v>0.44379999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B0A-4FC3-9CBB-6FACB36E78C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -650,163 +663,163 @@
                 <c:formatCode>yyyy/mm/dd;@</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40547.0</c:v>
+                  <c:v>40547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40547.0</c:v>
+                  <c:v>40547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40616.0</c:v>
+                  <c:v>40616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40616.0</c:v>
+                  <c:v>40616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40681.0</c:v>
+                  <c:v>40681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40681.0</c:v>
+                  <c:v>40681</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40745.0</c:v>
+                  <c:v>40745</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40745.0</c:v>
+                  <c:v>40745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40840.0</c:v>
+                  <c:v>40840</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40840.0</c:v>
+                  <c:v>40840</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40912.0</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40912.0</c:v>
+                  <c:v>40912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40986.0</c:v>
+                  <c:v>40986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40986.0</c:v>
+                  <c:v>40986</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41049.0</c:v>
+                  <c:v>41049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41049.0</c:v>
+                  <c:v>41049</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41111.0</c:v>
+                  <c:v>41111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41111.0</c:v>
+                  <c:v>41111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41182.0</c:v>
+                  <c:v>41182</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41182.0</c:v>
+                  <c:v>41182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41253.0</c:v>
+                  <c:v>41253</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41253.0</c:v>
+                  <c:v>41253</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41323.0</c:v>
+                  <c:v>41323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41323.0</c:v>
+                  <c:v>41323</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41392.0</c:v>
+                  <c:v>41392</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41392.0</c:v>
+                  <c:v>41392</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41455.0</c:v>
+                  <c:v>41455</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41455.0</c:v>
+                  <c:v>41455</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41520.0</c:v>
+                  <c:v>41520</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41520.0</c:v>
+                  <c:v>41520</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41581.0</c:v>
+                  <c:v>41581</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41581.0</c:v>
+                  <c:v>41581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41668.0</c:v>
+                  <c:v>41668</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41668.0</c:v>
+                  <c:v>41668</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41728.0</c:v>
+                  <c:v>41728</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41728.0</c:v>
+                  <c:v>41728</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41798.0</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41798.0</c:v>
+                  <c:v>41798</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41854.0</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41854.0</c:v>
+                  <c:v>41854</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41917.0</c:v>
+                  <c:v>41917</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41917.0</c:v>
+                  <c:v>41917</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41980.0</c:v>
+                  <c:v>41980</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42043.0</c:v>
+                  <c:v>42043</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42043.0</c:v>
+                  <c:v>42043</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42106.0</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42106.0</c:v>
+                  <c:v>42106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42176.0</c:v>
+                  <c:v>42176</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42176.0</c:v>
+                  <c:v>42176</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42204.0</c:v>
+                  <c:v>42204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,168 +831,173 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.0</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2391.0</c:v>
+                  <c:v>2391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2391.0</c:v>
+                  <c:v>2391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1009.0</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1009.0</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241.0</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>489.0</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>489.0</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>535.0</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>535.0</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>411.0</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>411.0</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>969.0</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>969.0</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>278.0</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>278.0</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146.0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>146.0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>214.0</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>214.0</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>172.0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>172.0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1125.0</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1125.0</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>705.0</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>705.0</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>175.0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>175.0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>482.0</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>482.0</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>316.0</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>316.0</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>364.0</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>364.0</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>379.0</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>379.0</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>292.0</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>292.0</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>853.0</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>853.0</c:v>
+                  <c:v>853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B0A-4FC3-9CBB-6FACB36E78C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -996,7 +1014,7 @@
         <c:axId val="-2063078832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40350.0"/>
+          <c:min val="40350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1027,7 +1045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1088,7 +1105,7 @@
         <c:crossAx val="-2062902464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="365.0"/>
+        <c:majorUnit val="365"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="-2062902464"/>
@@ -1143,8 +1160,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0"/>
-              <c:y val="0.00618372703412074"/>
+              <c:x val="0"/>
+              <c:y val="6.1837270341207401E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1290,8 +1307,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.894563591022444"/>
-              <c:y val="0.0654786997779124"/>
+              <c:x val="0.92200022941703408"/>
+              <c:y val="6.5478788425394299E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1385,10 +1402,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.318316708229426"/>
-          <c:y val="0.00226793226189192"/>
-          <c:w val="0.47435790445147"/>
-          <c:h val="0.184797540718369"/>
+          <c:x val="0.31831670822942598"/>
+          <c:y val="2.2679322618919199E-3"/>
+          <c:w val="0.47435790445147002"/>
+          <c:h val="0.18479754071836901"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1994,15 +2011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2070,12 +2087,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71197</cdr:x>
-      <cdr:y>0.31799</cdr:y>
+      <cdr:x>0.73188</cdr:x>
+      <cdr:y>0.33045</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.82543</cdr:x>
-      <cdr:y>0.49333</cdr:y>
+      <cdr:x>0.84534</cdr:x>
+      <cdr:y>0.50579</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2084,8 +2101,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7251736" y="1574984"/>
-          <a:ext cx="1155636" cy="868459"/>
+          <a:off x="10502102" y="1641460"/>
+          <a:ext cx="1628085" cy="870964"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2797,16 +2814,16 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6875" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="31" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="5" max="16384" width="10.8125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>40471</v>
       </c>
@@ -2832,7 +2849,7 @@
         <v>0.96460000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>40547</v>
       </c>
@@ -2846,7 +2863,7 @@
         <v>0.93310000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>40616</v>
       </c>
@@ -2860,7 +2877,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>40681</v>
       </c>
@@ -2874,7 +2891,7 @@
         <v>0.64229999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>40745</v>
       </c>
@@ -2888,7 +2905,7 @@
         <v>0.58850000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>40840</v>
       </c>
@@ -2902,7 +2919,7 @@
         <v>0.60540000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>40912</v>
       </c>
@@ -2916,7 +2933,7 @@
         <v>0.59930000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>40986</v>
       </c>
@@ -2930,7 +2947,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>41049</v>
       </c>
@@ -2944,7 +2961,7 @@
         <v>0.57609999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>41111</v>
       </c>
@@ -2958,7 +2975,7 @@
         <v>0.5746</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>41182</v>
       </c>
@@ -2972,7 +2989,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>41253</v>
       </c>
@@ -2986,7 +3003,7 @@
         <v>0.58550000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>41323</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>0.58550000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>41392</v>
       </c>
@@ -3014,7 +3031,7 @@
         <v>0.59650000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>41455</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>0.60009999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>41520</v>
       </c>
@@ -3042,7 +3059,7 @@
         <v>0.62370000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>41581</v>
       </c>
@@ -3056,7 +3073,7 @@
         <v>0.59360000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>41668</v>
       </c>
@@ -3070,7 +3087,7 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>41728</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>0.6109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>41798</v>
       </c>
@@ -3098,7 +3115,7 @@
         <v>0.58909999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>41854</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>0.59119999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>41917</v>
       </c>
@@ -3126,7 +3143,7 @@
         <v>0.57620000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>41980</v>
       </c>
@@ -3140,7 +3157,7 @@
         <v>0.58819999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>42043</v>
       </c>
@@ -3154,7 +3171,7 @@
         <v>0.57909999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>42106</v>
       </c>
@@ -3168,7 +3185,7 @@
         <v>0.57179999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>42176</v>
       </c>
@@ -3182,7 +3199,7 @@
         <v>0.56459999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>42204</v>
       </c>
@@ -3196,15 +3213,15 @@
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>41728</v>
       </c>
@@ -3215,7 +3232,7 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>42278</v>
       </c>
@@ -3226,7 +3243,7 @@
         <v>0.44379999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>40471</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>40471</v>
       </c>
@@ -3243,7 +3260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>40547</v>
       </c>
@@ -3252,7 +3269,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>40547</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>40616</v>
       </c>
@@ -3269,7 +3286,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>40616</v>
       </c>
@@ -3277,7 +3294,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>40681</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>40681</v>
       </c>
@@ -3294,7 +3311,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>40745</v>
       </c>
@@ -3303,7 +3320,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>40745</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>40840</v>
       </c>
@@ -3320,7 +3337,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>40840</v>
       </c>
@@ -3328,7 +3345,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>40912</v>
       </c>
@@ -3337,7 +3354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>40912</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>40986</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>40986</v>
       </c>
@@ -3362,7 +3379,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>41049</v>
       </c>
@@ -3371,7 +3388,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>41049</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>41111</v>
       </c>
@@ -3388,7 +3405,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>41111</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>41182</v>
       </c>
@@ -3405,7 +3422,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>41182</v>
       </c>
@@ -3413,7 +3430,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>41253</v>
       </c>
@@ -3422,7 +3439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>41253</v>
       </c>
@@ -3430,7 +3447,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>41323</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>41323</v>
       </c>
@@ -3447,7 +3464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>41392</v>
       </c>
@@ -3456,7 +3473,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>41392</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>41455</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>41455</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>41520</v>
       </c>
@@ -3490,7 +3507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>41520</v>
       </c>
@@ -3498,7 +3515,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>41581</v>
       </c>
@@ -3507,7 +3524,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>41581</v>
       </c>
@@ -3515,7 +3532,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>41668</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>41668</v>
       </c>
@@ -3532,7 +3549,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>41728</v>
       </c>
@@ -3541,7 +3558,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>41728</v>
       </c>
@@ -3549,7 +3566,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>41798</v>
       </c>
@@ -3558,7 +3575,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>41798</v>
       </c>
@@ -3566,7 +3583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>41854</v>
       </c>
@@ -3575,7 +3592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>41854</v>
       </c>
@@ -3583,7 +3600,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>41917</v>
       </c>
@@ -3592,7 +3609,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>41917</v>
       </c>
@@ -3600,7 +3617,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>41980</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>41980</v>
       </c>
@@ -3617,7 +3634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>42043</v>
       </c>
@@ -3626,7 +3643,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>42043</v>
       </c>
@@ -3634,7 +3651,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>42106</v>
       </c>
@@ -3643,7 +3660,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>42106</v>
       </c>
@@ -3651,7 +3668,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>42176</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>42176</v>
       </c>
@@ -3668,7 +3685,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>42204</v>
       </c>
@@ -3693,9 +3710,9 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
